--- a/final_data_pipeline/output/311224longform.xlsx
+++ b/final_data_pipeline/output/311224longform.xlsx
@@ -1098,7 +1098,7 @@
         <v>172</v>
       </c>
       <c r="AA2">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB2">
         <v>8000</v>
@@ -1187,7 +1187,7 @@
         <v>172</v>
       </c>
       <c r="AA3">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB3">
         <v>8000</v>
@@ -1276,7 +1276,7 @@
         <v>172</v>
       </c>
       <c r="AA4">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB4">
         <v>8000</v>
@@ -1365,7 +1365,7 @@
         <v>172</v>
       </c>
       <c r="AA5">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB5">
         <v>8000</v>
@@ -1454,7 +1454,7 @@
         <v>172</v>
       </c>
       <c r="AA6">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB6">
         <v>8000</v>
@@ -1543,7 +1543,7 @@
         <v>172</v>
       </c>
       <c r="AA7">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB7">
         <v>8000</v>
@@ -1632,7 +1632,7 @@
         <v>172</v>
       </c>
       <c r="AA8">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB8">
         <v>8000</v>
@@ -1724,7 +1724,7 @@
         <v>172</v>
       </c>
       <c r="AA9">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB9">
         <v>8000</v>
@@ -1813,7 +1813,7 @@
         <v>172</v>
       </c>
       <c r="AA10">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB10">
         <v>8000</v>
@@ -1902,7 +1902,7 @@
         <v>172</v>
       </c>
       <c r="AA11">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB11">
         <v>8000</v>
@@ -1991,7 +1991,7 @@
         <v>172</v>
       </c>
       <c r="AA12">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB12">
         <v>8000</v>
@@ -2080,7 +2080,7 @@
         <v>172</v>
       </c>
       <c r="AA13">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB13">
         <v>8000</v>
@@ -2169,7 +2169,7 @@
         <v>172</v>
       </c>
       <c r="AA14">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB14">
         <v>8000</v>
@@ -2258,7 +2258,7 @@
         <v>172</v>
       </c>
       <c r="AA15">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB15">
         <v>8000</v>
@@ -2350,7 +2350,7 @@
         <v>172</v>
       </c>
       <c r="AA16">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB16">
         <v>8000</v>
@@ -2439,7 +2439,7 @@
         <v>172</v>
       </c>
       <c r="AA17">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB17">
         <v>8000</v>
@@ -2531,7 +2531,7 @@
         <v>172</v>
       </c>
       <c r="AA18">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB18">
         <v>8000</v>
@@ -2620,7 +2620,7 @@
         <v>172</v>
       </c>
       <c r="AA19">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB19">
         <v>8000</v>
@@ -2709,7 +2709,7 @@
         <v>172</v>
       </c>
       <c r="AA20">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB20">
         <v>8000</v>
@@ -2798,7 +2798,7 @@
         <v>172</v>
       </c>
       <c r="AA21">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB21">
         <v>8000</v>
@@ -4231,7 +4231,7 @@
         <v>172</v>
       </c>
       <c r="AA37">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB37">
         <v>8000</v>
@@ -4320,7 +4320,7 @@
         <v>172</v>
       </c>
       <c r="AA38">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB38">
         <v>8000</v>
@@ -4409,7 +4409,7 @@
         <v>172</v>
       </c>
       <c r="AA39">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB39">
         <v>8000</v>
@@ -4501,7 +4501,7 @@
         <v>172</v>
       </c>
       <c r="AA40">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB40">
         <v>8000</v>
@@ -4593,7 +4593,7 @@
         <v>172</v>
       </c>
       <c r="AA41">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB41">
         <v>8000</v>
@@ -4682,7 +4682,7 @@
         <v>172</v>
       </c>
       <c r="AA42">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB42">
         <v>8000</v>
@@ -4771,7 +4771,7 @@
         <v>172</v>
       </c>
       <c r="AA43">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB43">
         <v>8000</v>
@@ -4860,7 +4860,7 @@
         <v>172</v>
       </c>
       <c r="AA44">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB44">
         <v>8000</v>
@@ -4949,7 +4949,7 @@
         <v>172</v>
       </c>
       <c r="AA45">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB45">
         <v>8000</v>
@@ -5038,7 +5038,7 @@
         <v>172</v>
       </c>
       <c r="AA46">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB46">
         <v>8000</v>
@@ -5575,7 +5575,7 @@
         <v>172</v>
       </c>
       <c r="AA52">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB52">
         <v>8000</v>
@@ -5667,7 +5667,7 @@
         <v>172</v>
       </c>
       <c r="AA53">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB53">
         <v>8000</v>
@@ -5756,7 +5756,7 @@
         <v>172</v>
       </c>
       <c r="AA54">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB54">
         <v>8000</v>
@@ -5845,7 +5845,7 @@
         <v>172</v>
       </c>
       <c r="AA55">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB55">
         <v>8000</v>
@@ -5934,7 +5934,7 @@
         <v>172</v>
       </c>
       <c r="AA56">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB56">
         <v>8000</v>
@@ -6023,7 +6023,7 @@
         <v>172</v>
       </c>
       <c r="AA57">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB57">
         <v>8000</v>
@@ -6112,7 +6112,7 @@
         <v>172</v>
       </c>
       <c r="AA58">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB58">
         <v>8000</v>
@@ -6201,7 +6201,7 @@
         <v>172</v>
       </c>
       <c r="AA59">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB59">
         <v>8000</v>
@@ -6290,7 +6290,7 @@
         <v>172</v>
       </c>
       <c r="AA60">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB60">
         <v>8000</v>
@@ -6379,7 +6379,7 @@
         <v>172</v>
       </c>
       <c r="AA61">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB61">
         <v>8000</v>
@@ -6468,7 +6468,7 @@
         <v>172</v>
       </c>
       <c r="AA62">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB62">
         <v>8000</v>
@@ -6557,7 +6557,7 @@
         <v>172</v>
       </c>
       <c r="AA63">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB63">
         <v>8000</v>
@@ -6649,7 +6649,7 @@
         <v>172</v>
       </c>
       <c r="AA64">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB64">
         <v>8000</v>
@@ -6741,7 +6741,7 @@
         <v>172</v>
       </c>
       <c r="AA65">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB65">
         <v>8000</v>
@@ -6830,7 +6830,7 @@
         <v>172</v>
       </c>
       <c r="AA66">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB66">
         <v>8000</v>
@@ -6919,7 +6919,7 @@
         <v>172</v>
       </c>
       <c r="AA67">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB67">
         <v>8000</v>
@@ -7008,7 +7008,7 @@
         <v>172</v>
       </c>
       <c r="AA68">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB68">
         <v>8000</v>
@@ -7097,7 +7097,7 @@
         <v>172</v>
       </c>
       <c r="AA69">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB69">
         <v>8000</v>
@@ -7186,7 +7186,7 @@
         <v>172</v>
       </c>
       <c r="AA70">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB70">
         <v>8000</v>
@@ -7275,7 +7275,7 @@
         <v>172</v>
       </c>
       <c r="AA71">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB71">
         <v>8000</v>
@@ -7364,7 +7364,7 @@
         <v>172</v>
       </c>
       <c r="AA72">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB72">
         <v>8000</v>
@@ -7453,7 +7453,7 @@
         <v>172</v>
       </c>
       <c r="AA73">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB73">
         <v>8000</v>
@@ -7545,7 +7545,7 @@
         <v>172</v>
       </c>
       <c r="AA74">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB74">
         <v>8000</v>
@@ -7637,7 +7637,7 @@
         <v>172</v>
       </c>
       <c r="AA75">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB75">
         <v>8000</v>
@@ -7726,7 +7726,7 @@
         <v>172</v>
       </c>
       <c r="AA76">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB76">
         <v>8000</v>
@@ -8263,7 +8263,7 @@
         <v>172</v>
       </c>
       <c r="AA82">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB82">
         <v>8000</v>
@@ -8352,7 +8352,7 @@
         <v>172</v>
       </c>
       <c r="AA83">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB83">
         <v>8000</v>
@@ -8444,7 +8444,7 @@
         <v>172</v>
       </c>
       <c r="AA84">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB84">
         <v>8000</v>
@@ -8533,7 +8533,7 @@
         <v>172</v>
       </c>
       <c r="AA85">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB85">
         <v>8000</v>
@@ -8622,7 +8622,7 @@
         <v>172</v>
       </c>
       <c r="AA86">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB86">
         <v>8000</v>
@@ -9607,7 +9607,7 @@
         <v>172</v>
       </c>
       <c r="AA97">
-        <v>10</v>
+        <v>16.97685185185183</v>
       </c>
       <c r="AB97">
         <v>8000</v>
@@ -9699,7 +9699,7 @@
         <v>172</v>
       </c>
       <c r="AA98">
-        <v>10</v>
+        <v>16.97685185185183</v>
       </c>
       <c r="AB98">
         <v>8000</v>
@@ -9788,7 +9788,7 @@
         <v>172</v>
       </c>
       <c r="AA99">
-        <v>10</v>
+        <v>16.97685185185183</v>
       </c>
       <c r="AB99">
         <v>8000</v>
@@ -9877,7 +9877,7 @@
         <v>172</v>
       </c>
       <c r="AA100">
-        <v>10</v>
+        <v>16.97685185185183</v>
       </c>
       <c r="AB100">
         <v>8000</v>
@@ -9966,7 +9966,7 @@
         <v>172</v>
       </c>
       <c r="AA101">
-        <v>10</v>
+        <v>16.97685185185183</v>
       </c>
       <c r="AB101">
         <v>8000</v>
@@ -10055,7 +10055,7 @@
         <v>172</v>
       </c>
       <c r="AA102">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AB102">
         <v>8000</v>
@@ -10147,7 +10147,7 @@
         <v>172</v>
       </c>
       <c r="AA103">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AB103">
         <v>8000</v>
@@ -10236,7 +10236,7 @@
         <v>172</v>
       </c>
       <c r="AA104">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AB104">
         <v>8000</v>
@@ -10325,7 +10325,7 @@
         <v>172</v>
       </c>
       <c r="AA105">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AB105">
         <v>8000</v>
@@ -10414,7 +10414,7 @@
         <v>172</v>
       </c>
       <c r="AA106">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AB106">
         <v>8000</v>
@@ -11399,7 +11399,7 @@
         <v>172</v>
       </c>
       <c r="AA117">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB117">
         <v>8000</v>
@@ -11491,7 +11491,7 @@
         <v>172</v>
       </c>
       <c r="AA118">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB118">
         <v>8000</v>
@@ -11580,7 +11580,7 @@
         <v>172</v>
       </c>
       <c r="AA119">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB119">
         <v>8000</v>
@@ -11669,7 +11669,7 @@
         <v>172</v>
       </c>
       <c r="AA120">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB120">
         <v>8000</v>
@@ -11758,7 +11758,7 @@
         <v>172</v>
       </c>
       <c r="AA121">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB121">
         <v>8000</v>
@@ -11847,7 +11847,7 @@
         <v>172</v>
       </c>
       <c r="AA122">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB122">
         <v>8000</v>
@@ -11936,7 +11936,7 @@
         <v>172</v>
       </c>
       <c r="AA123">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB123">
         <v>8000</v>
@@ -12025,7 +12025,7 @@
         <v>172</v>
       </c>
       <c r="AA124">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB124">
         <v>8000</v>
@@ -12114,7 +12114,7 @@
         <v>172</v>
       </c>
       <c r="AA125">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB125">
         <v>8000</v>
@@ -12206,7 +12206,7 @@
         <v>172</v>
       </c>
       <c r="AA126">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB126">
         <v>8000</v>
@@ -12743,7 +12743,7 @@
         <v>172</v>
       </c>
       <c r="AA132">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="AB132">
         <v>8000</v>
@@ -12835,7 +12835,7 @@
         <v>172</v>
       </c>
       <c r="AA133">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="AB133">
         <v>8000</v>
@@ -12924,7 +12924,7 @@
         <v>172</v>
       </c>
       <c r="AA134">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="AB134">
         <v>8000</v>
@@ -13013,7 +13013,7 @@
         <v>172</v>
       </c>
       <c r="AA135">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="AB135">
         <v>8000</v>
@@ -13102,7 +13102,7 @@
         <v>172</v>
       </c>
       <c r="AA136">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="AB136">
         <v>8000</v>
@@ -13191,7 +13191,7 @@
         <v>172</v>
       </c>
       <c r="AA137">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB137">
         <v>8000</v>
@@ -13280,7 +13280,7 @@
         <v>172</v>
       </c>
       <c r="AA138">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB138">
         <v>8000</v>
@@ -13369,7 +13369,7 @@
         <v>172</v>
       </c>
       <c r="AA139">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB139">
         <v>8000</v>
@@ -13461,7 +13461,7 @@
         <v>172</v>
       </c>
       <c r="AA140">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB140">
         <v>8000</v>
@@ -13550,7 +13550,7 @@
         <v>172</v>
       </c>
       <c r="AA141">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB141">
         <v>8000</v>
@@ -13639,7 +13639,7 @@
         <v>172</v>
       </c>
       <c r="AA142">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB142">
         <v>8000</v>
@@ -13731,7 +13731,7 @@
         <v>172</v>
       </c>
       <c r="AA143">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB143">
         <v>8000</v>
@@ -13820,7 +13820,7 @@
         <v>172</v>
       </c>
       <c r="AA144">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB144">
         <v>8000</v>
@@ -13909,7 +13909,7 @@
         <v>172</v>
       </c>
       <c r="AA145">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB145">
         <v>8000</v>
@@ -13998,7 +13998,7 @@
         <v>172</v>
       </c>
       <c r="AA146">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB146">
         <v>8000</v>
@@ -14087,7 +14087,7 @@
         <v>172</v>
       </c>
       <c r="AA147">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB147">
         <v>8000</v>
@@ -14179,7 +14179,7 @@
         <v>172</v>
       </c>
       <c r="AA148">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB148">
         <v>8000</v>
@@ -14268,7 +14268,7 @@
         <v>172</v>
       </c>
       <c r="AA149">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB149">
         <v>8000</v>
@@ -14357,7 +14357,7 @@
         <v>172</v>
       </c>
       <c r="AA150">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB150">
         <v>8000</v>
@@ -14446,7 +14446,7 @@
         <v>172</v>
       </c>
       <c r="AA151">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB151">
         <v>8000</v>
@@ -17223,7 +17223,7 @@
         <v>172</v>
       </c>
       <c r="AA182">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB182">
         <v>8000</v>
@@ -17312,7 +17312,7 @@
         <v>172</v>
       </c>
       <c r="AA183">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB183">
         <v>8000</v>
@@ -17401,7 +17401,7 @@
         <v>172</v>
       </c>
       <c r="AA184">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB184">
         <v>8000</v>
@@ -17490,7 +17490,7 @@
         <v>172</v>
       </c>
       <c r="AA185">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB185">
         <v>8000</v>
@@ -17579,7 +17579,7 @@
         <v>172</v>
       </c>
       <c r="AA186">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB186">
         <v>8000</v>
@@ -17671,7 +17671,7 @@
         <v>172</v>
       </c>
       <c r="AA187">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB187">
         <v>8000</v>
@@ -17763,7 +17763,7 @@
         <v>172</v>
       </c>
       <c r="AA188">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB188">
         <v>8000</v>
@@ -17852,7 +17852,7 @@
         <v>172</v>
       </c>
       <c r="AA189">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB189">
         <v>8000</v>
@@ -17941,7 +17941,7 @@
         <v>172</v>
       </c>
       <c r="AA190">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB190">
         <v>8000</v>
@@ -18030,7 +18030,7 @@
         <v>172</v>
       </c>
       <c r="AA191">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB191">
         <v>8000</v>
@@ -18119,7 +18119,7 @@
         <v>172</v>
       </c>
       <c r="AA192">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB192">
         <v>8000</v>
@@ -18208,7 +18208,7 @@
         <v>172</v>
       </c>
       <c r="AA193">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB193">
         <v>8000</v>
@@ -18297,7 +18297,7 @@
         <v>172</v>
       </c>
       <c r="AA194">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB194">
         <v>8000</v>
@@ -18389,7 +18389,7 @@
         <v>172</v>
       </c>
       <c r="AA195">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB195">
         <v>8000</v>
@@ -18481,7 +18481,7 @@
         <v>172</v>
       </c>
       <c r="AA196">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB196">
         <v>8000</v>
@@ -18570,7 +18570,7 @@
         <v>172</v>
       </c>
       <c r="AA197">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB197">
         <v>8000</v>
@@ -18659,7 +18659,7 @@
         <v>172</v>
       </c>
       <c r="AA198">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB198">
         <v>8000</v>
@@ -18748,7 +18748,7 @@
         <v>172</v>
       </c>
       <c r="AA199">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB199">
         <v>8000</v>
@@ -18837,7 +18837,7 @@
         <v>172</v>
       </c>
       <c r="AA200">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB200">
         <v>8000</v>
@@ -18926,7 +18926,7 @@
         <v>172</v>
       </c>
       <c r="AA201">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB201">
         <v>8000</v>
@@ -19466,7 +19466,7 @@
         <v>172</v>
       </c>
       <c r="AA207">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AB207">
         <v>8000</v>
@@ -19555,7 +19555,7 @@
         <v>172</v>
       </c>
       <c r="AA208">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AB208">
         <v>8000</v>
@@ -19647,7 +19647,7 @@
         <v>172</v>
       </c>
       <c r="AA209">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AB209">
         <v>8000</v>
@@ -19736,7 +19736,7 @@
         <v>172</v>
       </c>
       <c r="AA210">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AB210">
         <v>8000</v>
@@ -19831,7 +19831,7 @@
         <v>172</v>
       </c>
       <c r="AA211">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AB211">
         <v>8000</v>
@@ -19920,7 +19920,7 @@
         <v>172</v>
       </c>
       <c r="AA212">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AB212">
         <v>8000</v>
@@ -20009,7 +20009,7 @@
         <v>172</v>
       </c>
       <c r="AA213">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AB213">
         <v>8000</v>
@@ -20098,7 +20098,7 @@
         <v>172</v>
       </c>
       <c r="AA214">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AB214">
         <v>8000</v>
@@ -20187,7 +20187,7 @@
         <v>172</v>
       </c>
       <c r="AA215">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AB215">
         <v>8000</v>
@@ -20276,7 +20276,7 @@
         <v>172</v>
       </c>
       <c r="AA216">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AB216">
         <v>8000</v>
@@ -20365,7 +20365,7 @@
         <v>172</v>
       </c>
       <c r="AA217">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AB217">
         <v>8000</v>
@@ -20454,7 +20454,7 @@
         <v>172</v>
       </c>
       <c r="AA218">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB218">
         <v>8000</v>
@@ -20543,7 +20543,7 @@
         <v>172</v>
       </c>
       <c r="AA219">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB219">
         <v>8000</v>
@@ -20632,7 +20632,7 @@
         <v>172</v>
       </c>
       <c r="AA220">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB220">
         <v>8000</v>
@@ -20724,7 +20724,7 @@
         <v>172</v>
       </c>
       <c r="AA221">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB221">
         <v>8000</v>
@@ -20813,7 +20813,7 @@
         <v>172</v>
       </c>
       <c r="AA222">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB222">
         <v>8000</v>
@@ -20902,7 +20902,7 @@
         <v>172</v>
       </c>
       <c r="AA223">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB223">
         <v>8000</v>
@@ -20991,7 +20991,7 @@
         <v>172</v>
       </c>
       <c r="AA224">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB224">
         <v>8000</v>
@@ -21083,7 +21083,7 @@
         <v>172</v>
       </c>
       <c r="AA225">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB225">
         <v>8000</v>
@@ -21172,7 +21172,7 @@
         <v>172</v>
       </c>
       <c r="AA226">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB226">
         <v>8000</v>
@@ -21261,7 +21261,7 @@
         <v>172</v>
       </c>
       <c r="AA227">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB227">
         <v>8000</v>
@@ -21356,7 +21356,7 @@
         <v>172</v>
       </c>
       <c r="AA228">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB228">
         <v>8000</v>
@@ -21448,7 +21448,7 @@
         <v>172</v>
       </c>
       <c r="AA229">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB229">
         <v>8000</v>
@@ -21540,7 +21540,7 @@
         <v>172</v>
       </c>
       <c r="AA230">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB230">
         <v>8000</v>
@@ -21629,7 +21629,7 @@
         <v>172</v>
       </c>
       <c r="AA231">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB231">
         <v>8000</v>
@@ -21718,7 +21718,7 @@
         <v>172</v>
       </c>
       <c r="AA232">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB232">
         <v>8000</v>
@@ -21807,7 +21807,7 @@
         <v>172</v>
       </c>
       <c r="AA233">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB233">
         <v>8000</v>
@@ -21896,7 +21896,7 @@
         <v>172</v>
       </c>
       <c r="AA234">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB234">
         <v>8000</v>
@@ -21985,7 +21985,7 @@
         <v>172</v>
       </c>
       <c r="AA235">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB235">
         <v>8000</v>
@@ -22074,7 +22074,7 @@
         <v>172</v>
       </c>
       <c r="AA236">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB236">
         <v>8000</v>
@@ -22163,7 +22163,7 @@
         <v>172</v>
       </c>
       <c r="AA237">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB237">
         <v>8000</v>
@@ -22252,7 +22252,7 @@
         <v>172</v>
       </c>
       <c r="AA238">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB238">
         <v>8000</v>
@@ -22341,7 +22341,7 @@
         <v>172</v>
       </c>
       <c r="AA239">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB239">
         <v>8000</v>
@@ -22430,7 +22430,7 @@
         <v>172</v>
       </c>
       <c r="AA240">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB240">
         <v>8000</v>
@@ -22519,7 +22519,7 @@
         <v>172</v>
       </c>
       <c r="AA241">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB241">
         <v>8000</v>
@@ -22608,7 +22608,7 @@
         <v>172</v>
       </c>
       <c r="AA242">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB242">
         <v>8000</v>
@@ -22697,7 +22697,7 @@
         <v>172</v>
       </c>
       <c r="AA243">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB243">
         <v>8000</v>
@@ -22786,7 +22786,7 @@
         <v>172</v>
       </c>
       <c r="AA244">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB244">
         <v>8000</v>
@@ -22875,7 +22875,7 @@
         <v>172</v>
       </c>
       <c r="AA245">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB245">
         <v>8000</v>
@@ -22964,7 +22964,7 @@
         <v>172</v>
       </c>
       <c r="AA246">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB246">
         <v>8000</v>
@@ -23053,7 +23053,7 @@
         <v>172</v>
       </c>
       <c r="AA247">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB247">
         <v>8000</v>
@@ -23142,7 +23142,7 @@
         <v>172</v>
       </c>
       <c r="AA248">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB248">
         <v>8000</v>
@@ -23231,7 +23231,7 @@
         <v>172</v>
       </c>
       <c r="AA249">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB249">
         <v>8000</v>
@@ -23320,7 +23320,7 @@
         <v>172</v>
       </c>
       <c r="AA250">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB250">
         <v>8000</v>
@@ -23409,7 +23409,7 @@
         <v>172</v>
       </c>
       <c r="AA251">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB251">
         <v>8000</v>
@@ -23498,7 +23498,7 @@
         <v>172</v>
       </c>
       <c r="AA252">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB252">
         <v>8000</v>
@@ -23590,7 +23590,7 @@
         <v>172</v>
       </c>
       <c r="AA253">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB253">
         <v>8000</v>
@@ -23682,7 +23682,7 @@
         <v>172</v>
       </c>
       <c r="AA254">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB254">
         <v>8000</v>
@@ -23771,7 +23771,7 @@
         <v>172</v>
       </c>
       <c r="AA255">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB255">
         <v>8000</v>
@@ -23863,7 +23863,7 @@
         <v>172</v>
       </c>
       <c r="AA256">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB256">
         <v>8000</v>
@@ -23952,7 +23952,7 @@
         <v>172</v>
       </c>
       <c r="AA257">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB257">
         <v>8000</v>
@@ -24044,7 +24044,7 @@
         <v>172</v>
       </c>
       <c r="AA258">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB258">
         <v>8000</v>
@@ -25029,7 +25029,7 @@
         <v>172</v>
       </c>
       <c r="AA269">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB269">
         <v>8000</v>
@@ -25118,7 +25118,7 @@
         <v>172</v>
       </c>
       <c r="AA270">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB270">
         <v>8000</v>
@@ -25207,7 +25207,7 @@
         <v>172</v>
       </c>
       <c r="AA271">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB271">
         <v>8000</v>
@@ -25296,7 +25296,7 @@
         <v>172</v>
       </c>
       <c r="AA272">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB272">
         <v>8000</v>
@@ -25388,7 +25388,7 @@
         <v>172</v>
       </c>
       <c r="AA273">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB273">
         <v>8000</v>
@@ -25480,7 +25480,7 @@
         <v>172</v>
       </c>
       <c r="AA274">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB274">
         <v>8000</v>
@@ -25569,7 +25569,7 @@
         <v>172</v>
       </c>
       <c r="AA275">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB275">
         <v>8000</v>
@@ -25658,7 +25658,7 @@
         <v>172</v>
       </c>
       <c r="AA276">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB276">
         <v>8000</v>
@@ -25747,7 +25747,7 @@
         <v>172</v>
       </c>
       <c r="AA277">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB277">
         <v>8000</v>
@@ -25836,7 +25836,7 @@
         <v>172</v>
       </c>
       <c r="AA278">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB278">
         <v>8000</v>
@@ -25925,7 +25925,7 @@
         <v>172</v>
       </c>
       <c r="AA279">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB279">
         <v>8000</v>
@@ -26014,7 +26014,7 @@
         <v>172</v>
       </c>
       <c r="AA280">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB280">
         <v>8000</v>
@@ -26103,7 +26103,7 @@
         <v>172</v>
       </c>
       <c r="AA281">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB281">
         <v>8000</v>
@@ -26192,7 +26192,7 @@
         <v>172</v>
       </c>
       <c r="AA282">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB282">
         <v>8000</v>
@@ -26284,7 +26284,7 @@
         <v>172</v>
       </c>
       <c r="AA283">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB283">
         <v>8000</v>
@@ -26373,7 +26373,7 @@
         <v>172</v>
       </c>
       <c r="AA284">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB284">
         <v>8000</v>
@@ -26465,7 +26465,7 @@
         <v>172</v>
       </c>
       <c r="AA285">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB285">
         <v>8000</v>
@@ -26554,7 +26554,7 @@
         <v>172</v>
       </c>
       <c r="AA286">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB286">
         <v>8000</v>
@@ -26643,7 +26643,7 @@
         <v>172</v>
       </c>
       <c r="AA287">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB287">
         <v>8000</v>
@@ -26732,7 +26732,7 @@
         <v>172</v>
       </c>
       <c r="AA288">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB288">
         <v>8000</v>
@@ -26821,7 +26821,7 @@
         <v>172</v>
       </c>
       <c r="AA289">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB289">
         <v>8000</v>
@@ -26910,7 +26910,7 @@
         <v>172</v>
       </c>
       <c r="AA290">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB290">
         <v>8000</v>
@@ -26999,7 +26999,7 @@
         <v>172</v>
       </c>
       <c r="AA291">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB291">
         <v>8000</v>
@@ -27088,7 +27088,7 @@
         <v>172</v>
       </c>
       <c r="AA292">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB292">
         <v>8000</v>
@@ -27177,7 +27177,7 @@
         <v>172</v>
       </c>
       <c r="AA293">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB293">
         <v>8000</v>
@@ -27266,7 +27266,7 @@
         <v>172</v>
       </c>
       <c r="AA294">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB294">
         <v>8000</v>
@@ -27358,7 +27358,7 @@
         <v>172</v>
       </c>
       <c r="AA295">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB295">
         <v>8000</v>
@@ -27450,7 +27450,7 @@
         <v>172</v>
       </c>
       <c r="AA296">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB296">
         <v>8000</v>
@@ -27542,7 +27542,7 @@
         <v>172</v>
       </c>
       <c r="AA297">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB297">
         <v>8000</v>
@@ -27634,7 +27634,7 @@
         <v>172</v>
       </c>
       <c r="AA298">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB298">
         <v>8000</v>
@@ -27723,7 +27723,7 @@
         <v>172</v>
       </c>
       <c r="AA299">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB299">
         <v>8000</v>
@@ -27818,7 +27818,7 @@
         <v>172</v>
       </c>
       <c r="AA300">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB300">
         <v>8000</v>
@@ -27907,7 +27907,7 @@
         <v>172</v>
       </c>
       <c r="AA301">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB301">
         <v>8000</v>
@@ -27996,7 +27996,7 @@
         <v>172</v>
       </c>
       <c r="AA302">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB302">
         <v>8000</v>
@@ -28085,7 +28085,7 @@
         <v>172</v>
       </c>
       <c r="AA303">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB303">
         <v>8000</v>
@@ -28177,7 +28177,7 @@
         <v>172</v>
       </c>
       <c r="AA304">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB304">
         <v>8000</v>
@@ -28266,7 +28266,7 @@
         <v>172</v>
       </c>
       <c r="AA305">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB305">
         <v>8000</v>
@@ -28355,7 +28355,7 @@
         <v>172</v>
       </c>
       <c r="AA306">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB306">
         <v>8000</v>
@@ -28444,7 +28444,7 @@
         <v>172</v>
       </c>
       <c r="AA307">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB307">
         <v>8000</v>
@@ -28533,7 +28533,7 @@
         <v>172</v>
       </c>
       <c r="AA308">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB308">
         <v>8000</v>
@@ -28622,7 +28622,7 @@
         <v>172</v>
       </c>
       <c r="AA309">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB309">
         <v>8000</v>
@@ -28711,7 +28711,7 @@
         <v>172</v>
       </c>
       <c r="AA310">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB310">
         <v>8000</v>
@@ -28800,7 +28800,7 @@
         <v>172</v>
       </c>
       <c r="AA311">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB311">
         <v>8000</v>
@@ -28889,7 +28889,7 @@
         <v>172</v>
       </c>
       <c r="AA312">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB312">
         <v>8000</v>
@@ -28978,7 +28978,7 @@
         <v>172</v>
       </c>
       <c r="AA313">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB313">
         <v>8000</v>
@@ -29067,7 +29067,7 @@
         <v>172</v>
       </c>
       <c r="AA314">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB314">
         <v>8000</v>
@@ -29604,7 +29604,7 @@
         <v>172</v>
       </c>
       <c r="AA320">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB320">
         <v>8000</v>
@@ -29693,7 +29693,7 @@
         <v>172</v>
       </c>
       <c r="AA321">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB321">
         <v>8000</v>
@@ -29782,7 +29782,7 @@
         <v>172</v>
       </c>
       <c r="AA322">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB322">
         <v>8000</v>
@@ -29871,7 +29871,7 @@
         <v>172</v>
       </c>
       <c r="AA323">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB323">
         <v>8000</v>
@@ -29963,7 +29963,7 @@
         <v>172</v>
       </c>
       <c r="AA324">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB324">
         <v>8000</v>
@@ -30948,7 +30948,7 @@
         <v>172</v>
       </c>
       <c r="AA335">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB335">
         <v>8000</v>
@@ -31037,7 +31037,7 @@
         <v>172</v>
       </c>
       <c r="AA336">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB336">
         <v>8000</v>
@@ -31126,7 +31126,7 @@
         <v>172</v>
       </c>
       <c r="AA337">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB337">
         <v>8000</v>
@@ -31215,7 +31215,7 @@
         <v>172</v>
       </c>
       <c r="AA338">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB338">
         <v>8000</v>
@@ -31304,7 +31304,7 @@
         <v>172</v>
       </c>
       <c r="AA339">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB339">
         <v>8000</v>
@@ -31393,7 +31393,7 @@
         <v>172</v>
       </c>
       <c r="AA340">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB340">
         <v>8000</v>
@@ -31482,7 +31482,7 @@
         <v>172</v>
       </c>
       <c r="AA341">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB341">
         <v>8000</v>
@@ -31571,7 +31571,7 @@
         <v>172</v>
       </c>
       <c r="AA342">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB342">
         <v>8000</v>
@@ -31660,7 +31660,7 @@
         <v>172</v>
       </c>
       <c r="AA343">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB343">
         <v>8000</v>
@@ -31749,7 +31749,7 @@
         <v>172</v>
       </c>
       <c r="AA344">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB344">
         <v>8000</v>
@@ -31841,7 +31841,7 @@
         <v>172</v>
       </c>
       <c r="AA345">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB345">
         <v>8000</v>
@@ -31930,7 +31930,7 @@
         <v>172</v>
       </c>
       <c r="AA346">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB346">
         <v>8000</v>
@@ -32019,7 +32019,7 @@
         <v>172</v>
       </c>
       <c r="AA347">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB347">
         <v>8000</v>
@@ -32108,7 +32108,7 @@
         <v>172</v>
       </c>
       <c r="AA348">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB348">
         <v>8000</v>
@@ -32200,7 +32200,7 @@
         <v>172</v>
       </c>
       <c r="AA349">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB349">
         <v>8000</v>
@@ -32292,7 +32292,7 @@
         <v>172</v>
       </c>
       <c r="AA350">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB350">
         <v>8000</v>
@@ -32384,7 +32384,7 @@
         <v>172</v>
       </c>
       <c r="AA351">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB351">
         <v>8000</v>
@@ -32473,7 +32473,7 @@
         <v>172</v>
       </c>
       <c r="AA352">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB352">
         <v>8000</v>
@@ -32565,7 +32565,7 @@
         <v>172</v>
       </c>
       <c r="AA353">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB353">
         <v>8000</v>
@@ -32654,7 +32654,7 @@
         <v>172</v>
       </c>
       <c r="AA354">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB354">
         <v>8000</v>
@@ -32743,7 +32743,7 @@
         <v>172</v>
       </c>
       <c r="AA355">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB355">
         <v>8000</v>
@@ -32832,7 +32832,7 @@
         <v>172</v>
       </c>
       <c r="AA356">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB356">
         <v>8000</v>
@@ -32921,7 +32921,7 @@
         <v>172</v>
       </c>
       <c r="AA357">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB357">
         <v>8000</v>
@@ -33010,7 +33010,7 @@
         <v>172</v>
       </c>
       <c r="AA358">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB358">
         <v>8000</v>
@@ -33099,7 +33099,7 @@
         <v>172</v>
       </c>
       <c r="AA359">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB359">
         <v>8000</v>
@@ -34532,7 +34532,7 @@
         <v>172</v>
       </c>
       <c r="AA375">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB375">
         <v>8000</v>
@@ -34624,7 +34624,7 @@
         <v>172</v>
       </c>
       <c r="AA376">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB376">
         <v>8000</v>
@@ -34713,7 +34713,7 @@
         <v>172</v>
       </c>
       <c r="AA377">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB377">
         <v>8000</v>
@@ -34802,7 +34802,7 @@
         <v>172</v>
       </c>
       <c r="AA378">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB378">
         <v>8000</v>
@@ -34891,7 +34891,7 @@
         <v>172</v>
       </c>
       <c r="AA379">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB379">
         <v>8000</v>
@@ -34980,7 +34980,7 @@
         <v>172</v>
       </c>
       <c r="AA380">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB380">
         <v>8000</v>
@@ -35072,7 +35072,7 @@
         <v>172</v>
       </c>
       <c r="AA381">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB381">
         <v>8000</v>
@@ -35161,7 +35161,7 @@
         <v>172</v>
       </c>
       <c r="AA382">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB382">
         <v>8000</v>
@@ -35250,7 +35250,7 @@
         <v>172</v>
       </c>
       <c r="AA383">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB383">
         <v>8000</v>
@@ -35339,7 +35339,7 @@
         <v>172</v>
       </c>
       <c r="AA384">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB384">
         <v>8000</v>
@@ -35428,7 +35428,7 @@
         <v>172</v>
       </c>
       <c r="AA385">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB385">
         <v>8000</v>
@@ -35517,7 +35517,7 @@
         <v>172</v>
       </c>
       <c r="AA386">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB386">
         <v>8000</v>
@@ -35606,7 +35606,7 @@
         <v>172</v>
       </c>
       <c r="AA387">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB387">
         <v>8000</v>
@@ -35695,7 +35695,7 @@
         <v>172</v>
       </c>
       <c r="AA388">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB388">
         <v>8000</v>
@@ -35784,7 +35784,7 @@
         <v>172</v>
       </c>
       <c r="AA389">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB389">
         <v>8000</v>
@@ -35873,7 +35873,7 @@
         <v>172</v>
       </c>
       <c r="AA390">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB390">
         <v>8000</v>
@@ -35965,7 +35965,7 @@
         <v>172</v>
       </c>
       <c r="AA391">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB391">
         <v>8000</v>
@@ -36057,7 +36057,7 @@
         <v>172</v>
       </c>
       <c r="AA392">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB392">
         <v>8000</v>
@@ -36146,7 +36146,7 @@
         <v>172</v>
       </c>
       <c r="AA393">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB393">
         <v>8000</v>
@@ -36235,7 +36235,7 @@
         <v>172</v>
       </c>
       <c r="AA394">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AB394">
         <v>8000</v>
@@ -39460,7 +39460,7 @@
         <v>172</v>
       </c>
       <c r="AA430">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB430">
         <v>8000</v>
@@ -39549,7 +39549,7 @@
         <v>172</v>
       </c>
       <c r="AA431">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB431">
         <v>8000</v>
@@ -39638,7 +39638,7 @@
         <v>172</v>
       </c>
       <c r="AA432">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB432">
         <v>8000</v>
@@ -39727,7 +39727,7 @@
         <v>172</v>
       </c>
       <c r="AA433">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB433">
         <v>8000</v>
@@ -39816,7 +39816,7 @@
         <v>172</v>
       </c>
       <c r="AA434">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB434">
         <v>8000</v>
@@ -39905,7 +39905,7 @@
         <v>172</v>
       </c>
       <c r="AA435">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB435">
         <v>8000</v>
@@ -39997,7 +39997,7 @@
         <v>172</v>
       </c>
       <c r="AA436">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB436">
         <v>8000</v>
@@ -40089,7 +40089,7 @@
         <v>172</v>
       </c>
       <c r="AA437">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB437">
         <v>8000</v>
@@ -40178,7 +40178,7 @@
         <v>172</v>
       </c>
       <c r="AA438">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB438">
         <v>8000</v>
@@ -40267,7 +40267,7 @@
         <v>172</v>
       </c>
       <c r="AA439">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB439">
         <v>8000</v>
